--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/26.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/26.xlsx
@@ -479,13 +479,13 @@
         <v>-21.46274266857847</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.21762826172004</v>
+        <v>-14.16820481849252</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4708150163304032</v>
+        <v>-0.5121605087045742</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.53376845732653</v>
+        <v>-10.46787489712412</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-20.80326060489736</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.41900097172863</v>
+        <v>-14.37444786515824</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4564920370215549</v>
+        <v>-0.503467219617668</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.28294611948474</v>
+        <v>-10.22146466533999</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-20.0176339713527</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.73960528371682</v>
+        <v>-14.69083645563139</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3823503260288602</v>
+        <v>-0.4255549254065562</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.865275474227994</v>
+        <v>-9.798373806706774</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-19.20814916247184</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.20279786595424</v>
+        <v>-15.1492241627259</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3163520274037191</v>
+        <v>-0.365919485962494</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.650941384406096</v>
+        <v>-9.581159410259696</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-18.39730551390857</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.65130088440325</v>
+        <v>-15.59398278256218</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3021468788204463</v>
+        <v>-0.3493446305648688</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.463878561403515</v>
+        <v>-9.39117700372341</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-17.61041223131494</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.13498292058798</v>
+        <v>-16.06869659130032</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3063756926383238</v>
+        <v>-0.3679226082972781</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.322141290838989</v>
+        <v>-9.250041979089602</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-16.86758374854343</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.6467741309739</v>
+        <v>-16.57284189682667</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.09479098641318881</v>
+        <v>-0.1499750428910642</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.119550996666119</v>
+        <v>-9.047739715579251</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.19012297782598</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.27853011229854</v>
+        <v>-17.19479174332287</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1126958290224859</v>
+        <v>0.05028482137597775</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.144269264431298</v>
+        <v>-9.071227306877308</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-15.56888288745328</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.70601998468658</v>
+        <v>-17.61658646397476</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2298064779417256</v>
+        <v>0.1751330212746775</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.827265335724585</v>
+        <v>-8.75722151552135</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-15.0087821083558</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.24237235520358</v>
+        <v>-18.14596063707711</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3556496928563966</v>
+        <v>0.301002420795032</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.753084347823364</v>
+        <v>-8.680264959417684</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.49357868682284</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.76619539190104</v>
+        <v>-18.66741396696021</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4445595214545583</v>
+        <v>0.3827638520416112</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.252225210310291</v>
+        <v>-8.178436991494324</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-13.9860006573683</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.53214747735338</v>
+        <v>-19.4285480849668</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5852232231860631</v>
+        <v>0.5188976169898789</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.670717487292187</v>
+        <v>-7.587699194972802</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-13.46907735032907</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.35789210988388</v>
+        <v>-20.25365119465806</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8325368238662686</v>
+        <v>0.7586438666275667</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.104501573993218</v>
+        <v>-7.010171532018582</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-12.91633501595887</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.15605126032687</v>
+        <v>-21.04920497683554</v>
       </c>
       <c r="F15" t="n">
-        <v>0.916157362116373</v>
+        <v>0.8392662675269158</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.567455311425615</v>
+        <v>-6.46320130389695</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-12.30687559669452</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.04160153223838</v>
+        <v>-21.93766173997792</v>
       </c>
       <c r="F16" t="n">
-        <v>1.164675454658017</v>
+        <v>1.084707668900754</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.061869852586679</v>
+        <v>-5.965117734586324</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-11.6463105758411</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.67873845003098</v>
+        <v>-22.5772731030076</v>
       </c>
       <c r="F17" t="n">
-        <v>1.343110450087902</v>
+        <v>1.261911987863517</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.9433976041719</v>
+        <v>-5.843359318158271</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-10.93705689111093</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.46245679043955</v>
+        <v>-23.35803258297394</v>
       </c>
       <c r="F18" t="n">
-        <v>1.674188604349471</v>
+        <v>1.584244483826813</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.545077382515226</v>
+        <v>-5.445314034861274</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-10.19255721094951</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.26610161577322</v>
+        <v>-24.15688562546754</v>
       </c>
       <c r="F19" t="n">
-        <v>1.926582018532266</v>
+        <v>1.835328667725435</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.287499416407107</v>
+        <v>-5.192423113170492</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-9.439240678433958</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.01786164494513</v>
+        <v>-24.90851473161103</v>
       </c>
       <c r="F20" t="n">
-        <v>2.150512766337148</v>
+        <v>2.059468892375786</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.062063053775426</v>
+        <v>-4.955400062523884</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-8.693493572802167</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.59756263017107</v>
+        <v>-25.48777057854036</v>
       </c>
       <c r="F21" t="n">
-        <v>2.502355312905695</v>
+        <v>2.414820176105914</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.80071450444889</v>
+        <v>-4.701134449034722</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-7.983127038513794</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.17505101621677</v>
+        <v>-26.06434250338713</v>
       </c>
       <c r="F22" t="n">
-        <v>2.78410167005964</v>
+        <v>2.704317176542161</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.526011806223794</v>
+        <v>-4.413221617242324</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-7.337480087723873</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.67083034022725</v>
+        <v>-26.56510999478031</v>
       </c>
       <c r="F23" t="n">
-        <v>2.979334090035459</v>
+        <v>2.900858826802153</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.369061279757182</v>
+        <v>-4.260565366107798</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.772468695545213</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.88766505989192</v>
+        <v>-26.78064857646365</v>
       </c>
       <c r="F24" t="n">
-        <v>3.106748381291137</v>
+        <v>3.027409026070277</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.191398730194959</v>
+        <v>-4.081344832507409</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.310999033320135</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.18859164070899</v>
+        <v>-27.0850184329281</v>
       </c>
       <c r="F25" t="n">
-        <v>3.4144174980717</v>
+        <v>3.334292604680336</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.933572010332848</v>
+        <v>-3.827157772835298</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.962978878540786</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.1557430528791</v>
+        <v>-27.05292919866303</v>
       </c>
       <c r="F26" t="n">
-        <v>3.501428942757811</v>
+        <v>3.41373669832393</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.89771219284936</v>
+        <v>-3.787239341470875</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.719783062235704</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.08183700333756</v>
+        <v>-26.98250570167738</v>
       </c>
       <c r="F27" t="n">
-        <v>3.507189556008171</v>
+        <v>3.424917524950764</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.82861101845073</v>
+        <v>-3.729960516538324</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.577658215235689</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.99880561871533</v>
+        <v>-26.89622742595041</v>
       </c>
       <c r="F28" t="n">
-        <v>3.562884212296873</v>
+        <v>3.488415193733135</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.819407129552996</v>
+        <v>-3.728454901711525</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.518231777311833</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.84794301307012</v>
+        <v>-26.75175386409196</v>
       </c>
       <c r="F29" t="n">
-        <v>3.571629870595146</v>
+        <v>3.499255620486085</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.741128250862316</v>
+        <v>-3.654404836838723</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.519857205271038</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.72954931847239</v>
+        <v>-26.63614882999952</v>
       </c>
       <c r="F30" t="n">
-        <v>3.53790409847486</v>
+        <v>3.472023630575294</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.700096973756346</v>
+        <v>-3.613923436452106</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.570300094925833</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.32165862343842</v>
+        <v>-26.23201562588112</v>
       </c>
       <c r="F31" t="n">
-        <v>3.428609554352131</v>
+        <v>3.366394931248248</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.879291322751051</v>
+        <v>-3.802099105196235</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.649896505904371</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.98550065567426</v>
+        <v>-25.89995554890642</v>
       </c>
       <c r="F32" t="n">
-        <v>3.37710443497278</v>
+        <v>3.318398549030481</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.968292797469105</v>
+        <v>-3.892003948810367</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.745261707334517</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.56646841092197</v>
+        <v>-25.4809756733655</v>
       </c>
       <c r="F33" t="n">
-        <v>3.255503126178829</v>
+        <v>3.198001732097968</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.09811607244766</v>
+        <v>-4.041531139565721</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.848344714125106</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.10757010401663</v>
+        <v>-25.02487911926829</v>
       </c>
       <c r="F34" t="n">
-        <v>3.170246050073509</v>
+        <v>3.117248408170201</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.007975567382377</v>
+        <v>-3.960502877278278</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.94548404742241</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.74736157593222</v>
+        <v>-24.66943618941827</v>
       </c>
       <c r="F35" t="n">
-        <v>2.917747897467979</v>
+        <v>2.863414840674816</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.09757928803115</v>
+        <v>-4.05859041016849</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.034099044707325</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.05335169459517</v>
+        <v>-23.97491570827039</v>
       </c>
       <c r="F36" t="n">
-        <v>2.787872253278057</v>
+        <v>2.742389593205901</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.409202280269914</v>
+        <v>-4.37450767773934</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.112762369019885</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.61845157879871</v>
+        <v>-23.54446697544012</v>
       </c>
       <c r="F37" t="n">
-        <v>2.635242186749214</v>
+        <v>2.587507650588281</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.478552208422537</v>
+        <v>-4.451503510751531</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.177688489985372</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.24054225727229</v>
+        <v>-23.17032823713211</v>
       </c>
       <c r="F38" t="n">
-        <v>2.57619590093303</v>
+        <v>2.529875333479003</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.588828675258395</v>
+        <v>-4.558362886545699</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.237625681573752</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.76175674235036</v>
+        <v>-22.69365058296771</v>
       </c>
       <c r="F39" t="n">
-        <v>2.537390315310154</v>
+        <v>2.489969994417422</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.516127117578291</v>
+        <v>-4.491343388298903</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.299419352747371</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.40027826089031</v>
+        <v>-22.33435851608222</v>
       </c>
       <c r="F40" t="n">
-        <v>2.530739425466557</v>
+        <v>2.473578431259581</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.563468884653972</v>
+        <v>-4.544877814618721</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.369968299817836</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.88339414469896</v>
+        <v>-21.81884909168926</v>
       </c>
       <c r="F41" t="n">
-        <v>2.60858625816346</v>
+        <v>2.557604830897779</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.49443317176955</v>
+        <v>-4.476143224699659</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.467774018185151</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.26010888331291</v>
+        <v>-21.20091858216547</v>
       </c>
       <c r="F42" t="n">
-        <v>2.731208766579067</v>
+        <v>2.682976722910148</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.507158890131708</v>
+        <v>-4.487389512840702</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.603217636860592</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.60737903283582</v>
+        <v>-20.54922302361287</v>
       </c>
       <c r="F43" t="n">
-        <v>2.842676632973522</v>
+        <v>2.793763789556833</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.505862752150377</v>
+        <v>-4.481563438076134</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.788091663116192</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.35046877417263</v>
+        <v>-20.29557274835727</v>
       </c>
       <c r="F44" t="n">
-        <v>2.788841083688345</v>
+        <v>2.743908300335541</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.586458968444044</v>
+        <v>-4.565105422509188</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.038700260349682</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.90766090745976</v>
+        <v>-19.85716389539923</v>
       </c>
       <c r="F45" t="n">
-        <v>2.870667976449133</v>
+        <v>2.821179071707408</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.566624129638829</v>
+        <v>-4.548517474808721</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.35847410545504</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.55746799104928</v>
+        <v>-19.50470601059712</v>
       </c>
       <c r="F46" t="n">
-        <v>2.910782792356181</v>
+        <v>2.862498379475896</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.657877480445658</v>
+        <v>-4.651462252053213</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.75385834011891</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.07012011006887</v>
+        <v>-19.02301400444433</v>
       </c>
       <c r="F47" t="n">
-        <v>2.940895088892151</v>
+        <v>2.894862552100642</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.965638243346113</v>
+        <v>-4.963019782777768</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.226760455352149</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.61233464890507</v>
+        <v>-18.56696981955849</v>
       </c>
       <c r="F48" t="n">
-        <v>2.903372548947764</v>
+        <v>2.860665457078054</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.090997043055641</v>
+        <v>-5.089386689806108</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.762437814917027</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.14994069714099</v>
+        <v>-18.09694305523768</v>
       </c>
       <c r="F49" t="n">
-        <v>2.931311523212007</v>
+        <v>2.889494707935535</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.34699084051991</v>
+        <v>-5.342107411559947</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.355174286902031</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.66006600171213</v>
+        <v>-17.60955589734875</v>
       </c>
       <c r="F50" t="n">
-        <v>2.991640854706681</v>
+        <v>2.941680627062655</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.421499135992174</v>
+        <v>-5.432653778013324</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.990940285675414</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.97232733343625</v>
+        <v>-16.91951298377273</v>
       </c>
       <c r="F51" t="n">
-        <v>2.972997415460064</v>
+        <v>2.919397527626037</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.638032732691481</v>
+        <v>-5.649540866889359</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.6454605224819</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.5949417040235</v>
+        <v>-16.54363296918678</v>
       </c>
       <c r="F52" t="n">
-        <v>2.849065676760285</v>
+        <v>2.800231387160646</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.795978274174065</v>
+        <v>-5.79397515183928</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.30877540642409</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.17452167516999</v>
+        <v>-16.12013624916547</v>
       </c>
       <c r="F53" t="n">
-        <v>2.914474821757548</v>
+        <v>2.868782684839924</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.852104976456544</v>
+        <v>-5.852733406992947</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.96026221864014</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.90640440527429</v>
+        <v>-15.84479202810112</v>
       </c>
       <c r="F54" t="n">
-        <v>2.66957020480022</v>
+        <v>2.625894282520222</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.081102445461174</v>
+        <v>-6.087020166345635</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-12.57777288323331</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.57338859019214</v>
+        <v>-15.50744266077837</v>
       </c>
       <c r="F55" t="n">
-        <v>2.50937278722886</v>
+        <v>2.464413819270373</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.288432153262749</v>
+        <v>-6.300896025568072</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-13.15443018246244</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.17400789200529</v>
+        <v>-15.10095284214846</v>
       </c>
       <c r="F56" t="n">
-        <v>2.454568407533395</v>
+        <v>2.40947851654649</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.495918968698423</v>
+        <v>-6.497974460244574</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-13.67500060308033</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.63324341543064</v>
+        <v>-14.56080370380736</v>
       </c>
       <c r="F57" t="n">
-        <v>2.418093251816346</v>
+        <v>2.365619302026708</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.762046208562189</v>
+        <v>-6.764965792095894</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-14.13065814699717</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.38772346023975</v>
+        <v>-14.31085855025597</v>
       </c>
       <c r="F58" t="n">
-        <v>2.241739932538296</v>
+        <v>2.187406875745133</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.720622162370968</v>
+        <v>-6.721800469626723</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-14.52494325371313</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.01486776761023</v>
+        <v>-13.93512255100128</v>
       </c>
       <c r="F59" t="n">
-        <v>2.299241326619156</v>
+        <v>2.237943164714195</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.855132481766861</v>
+        <v>-6.858798326562544</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-14.85178580250435</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.90744542279387</v>
+        <v>-13.82243710044254</v>
       </c>
       <c r="F60" t="n">
-        <v>2.118567547403337</v>
+        <v>2.057321754709742</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.821590001886359</v>
+        <v>-6.821380525040891</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-15.11585162528905</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.57761103730226</v>
+        <v>-13.49406905286921</v>
       </c>
       <c r="F61" t="n">
-        <v>1.997594669145788</v>
+        <v>1.93564189209874</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.158638246243755</v>
+        <v>-7.151280372046705</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-15.32685295052998</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.28499806878968</v>
+        <v>-13.19271042605836</v>
       </c>
       <c r="F62" t="n">
-        <v>1.921554574241043</v>
+        <v>1.856590567540398</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.191434464862279</v>
+        <v>-7.192913895083394</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-15.48188940497961</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.95838438979714</v>
+        <v>-12.86531120889531</v>
       </c>
       <c r="F63" t="n">
-        <v>1.852793799716298</v>
+        <v>1.788170192889538</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.319176063689</v>
+        <v>-7.313192881290331</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-15.5912317638715</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.71979026280953</v>
+        <v>-12.62149325307385</v>
       </c>
       <c r="F64" t="n">
-        <v>1.739466826318317</v>
+        <v>1.672329497345945</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.488197693375684</v>
+        <v>-7.497715797541619</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-15.66204918408769</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.50986827904529</v>
+        <v>-12.40950268546062</v>
       </c>
       <c r="F65" t="n">
-        <v>1.647951629454652</v>
+        <v>1.596184664018467</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.731426495569271</v>
+        <v>-7.73036601903909</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-15.68860050064637</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.27564698120681</v>
+        <v>-12.17338300371009</v>
       </c>
       <c r="F66" t="n">
-        <v>1.579190854929906</v>
+        <v>1.52718822804257</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.845525914834913</v>
+        <v>-7.851613835656316</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-15.68225248218561</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.09596821700696</v>
+        <v>-11.99268303988859</v>
       </c>
       <c r="F67" t="n">
-        <v>1.64975836724681</v>
+        <v>1.576912794235446</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.820467247195849</v>
+        <v>-7.816028956532504</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-15.64546185127997</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.009192433772</v>
+        <v>-11.90214976573805</v>
       </c>
       <c r="F68" t="n">
-        <v>1.497730546648687</v>
+        <v>1.438998476100704</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.823216630792612</v>
+        <v>-7.829252182402648</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-15.57132027352505</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.86113158093492</v>
+        <v>-11.75330337473047</v>
       </c>
       <c r="F69" t="n">
-        <v>1.401528305367683</v>
+        <v>1.326980732986895</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.8957872654443</v>
+        <v>-7.901849001660019</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-15.47143112841115</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.76779655397626</v>
+        <v>-11.65276758120885</v>
       </c>
       <c r="F70" t="n">
-        <v>1.444183028026027</v>
+        <v>1.374139207822793</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.834449826630813</v>
+        <v>-7.843535884802971</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-15.34637882165339</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.49672042363832</v>
+        <v>-11.38525255724386</v>
       </c>
       <c r="F71" t="n">
-        <v>1.384325019433655</v>
+        <v>1.312736307495097</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.676713761993698</v>
+        <v>-7.699415815121251</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-15.19314584528625</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.4395463371285</v>
+        <v>-11.32916513186991</v>
       </c>
       <c r="F72" t="n">
-        <v>1.432164294017322</v>
+        <v>1.364555642142649</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.685276128052187</v>
+        <v>-7.702230660232222</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-15.02496302716969</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.38606428002005</v>
+        <v>-11.30240446486142</v>
       </c>
       <c r="F73" t="n">
-        <v>1.405717842277036</v>
+        <v>1.337821159739844</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.555046991685537</v>
+        <v>-7.585853180272118</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-14.84020954707379</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.58220006889195</v>
+        <v>-11.49796419240828</v>
       </c>
       <c r="F74" t="n">
-        <v>1.45065062562984</v>
+        <v>1.384901080758691</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.446799831790146</v>
+        <v>-7.471740668703634</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-14.64115001491848</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.71118543648864</v>
+        <v>-11.62655679091972</v>
       </c>
       <c r="F75" t="n">
-        <v>1.382518281641497</v>
+        <v>1.316768736770349</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.321964724194288</v>
+        <v>-7.341537716942669</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-14.43939627501378</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.04134712955128</v>
+        <v>-11.96401089666521</v>
       </c>
       <c r="F76" t="n">
-        <v>1.404094396724662</v>
+        <v>1.342560573368549</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.112226032669836</v>
+        <v>-7.145742327944655</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-14.23122696538857</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.65046651926259</v>
+        <v>-12.5765473774182</v>
       </c>
       <c r="F77" t="n">
-        <v>1.379795082650418</v>
+        <v>1.316480706107831</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.951675122921749</v>
+        <v>-6.974639022106137</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-14.02288402228463</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.17663307816872</v>
+        <v>-13.10617030427455</v>
       </c>
       <c r="F78" t="n">
-        <v>1.409881194580705</v>
+        <v>1.344498234189125</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.829039522203302</v>
+        <v>-6.837916103529992</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-13.82121111428366</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.67149594098028</v>
+        <v>-13.60167468992536</v>
       </c>
       <c r="F79" t="n">
-        <v>1.468194311437753</v>
+        <v>1.404172950541712</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.661170015166689</v>
+        <v>-6.662780368416222</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-13.61716889046114</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.22876981143835</v>
+        <v>-14.1598519292795</v>
       </c>
       <c r="F80" t="n">
-        <v>1.445963581212502</v>
+        <v>1.390949724671569</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.38644113233591</v>
+        <v>-6.395893774987636</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-13.41740123155972</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.01196445973324</v>
+        <v>-14.94417251561879</v>
       </c>
       <c r="F81" t="n">
-        <v>1.511817864506384</v>
+        <v>1.453452378437969</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.276256311619943</v>
+        <v>-6.28040657162077</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-13.2223179257317</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.76381613502505</v>
+        <v>-15.69835462081642</v>
       </c>
       <c r="F82" t="n">
-        <v>1.539337885079692</v>
+        <v>1.486706827655953</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.189742374441818</v>
+        <v>-6.195332787755235</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-13.02182138966695</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.63326287444124</v>
+        <v>-16.56708128357631</v>
       </c>
       <c r="F83" t="n">
-        <v>1.497887654282787</v>
+        <v>1.442926166953221</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.926521625808915</v>
+        <v>-5.935372022529922</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-12.82291154300907</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.70236723219374</v>
+        <v>-17.63774362536698</v>
       </c>
       <c r="F84" t="n">
-        <v>1.575420271711489</v>
+        <v>1.52710967422552</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.74565146205047</v>
+        <v>-5.747418922934102</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-12.62330324522471</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.51319973178752</v>
+        <v>-18.44975443221652</v>
       </c>
       <c r="F85" t="n">
-        <v>1.570209535180482</v>
+        <v>1.518704415801132</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.544723890338499</v>
+        <v>-5.540010661315478</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-12.41470641902406</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.60642011137449</v>
+        <v>-19.53734512158155</v>
       </c>
       <c r="F86" t="n">
-        <v>1.565103537072209</v>
+        <v>1.514331586651995</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.243731848007217</v>
+        <v>-5.242815386808296</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-12.2048338220177</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.66638604174348</v>
+        <v>-20.59670880601981</v>
       </c>
       <c r="F87" t="n">
-        <v>1.569345443192928</v>
+        <v>1.537033639779548</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.963347090348812</v>
+        <v>-4.970652595334495</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-11.98820853073375</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.02680723002723</v>
+        <v>-21.95900219360993</v>
       </c>
       <c r="F88" t="n">
-        <v>1.625432868566883</v>
+        <v>1.589245743512352</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.660103171928752</v>
+        <v>-4.659919879688968</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-11.75988400651983</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.48549924344098</v>
+        <v>-23.42568051175714</v>
       </c>
       <c r="F89" t="n">
-        <v>1.42569669641351</v>
+        <v>1.382727758486965</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.316220745487976</v>
+        <v>-4.320213897854702</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-11.52342690145063</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.97231352335876</v>
+        <v>-24.91430152946707</v>
       </c>
       <c r="F90" t="n">
-        <v>1.270762384584524</v>
+        <v>1.233881367479381</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.130454060466724</v>
+        <v>-4.127063154030717</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-11.2692924819435</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.62530840324657</v>
+        <v>-26.56829142437085</v>
       </c>
       <c r="F91" t="n">
-        <v>1.101924047137624</v>
+        <v>1.06874815173669</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.085560554022446</v>
+        <v>-4.087956445442481</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-10.99369445373555</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.31611385374128</v>
+        <v>-28.26906011732812</v>
       </c>
       <c r="F92" t="n">
-        <v>1.01360337216734</v>
+        <v>0.9839623985336723</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.837369769051844</v>
+        <v>-3.841978259652132</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-10.69727462764323</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.20516295386541</v>
+        <v>-30.16222020054455</v>
       </c>
       <c r="F93" t="n">
-        <v>0.889056295234</v>
+        <v>0.8608816595186055</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.874342432276879</v>
+        <v>-3.883690336505871</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-10.37073126201541</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.34043899353389</v>
+        <v>-32.30342705340033</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7956819913668097</v>
+        <v>0.7695759395004079</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.907662343009072</v>
+        <v>-3.921042676513316</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-10.01902099983972</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.42652725142599</v>
+        <v>-34.39519737072574</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3852513895815392</v>
+        <v>0.3585169071787346</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.909744019160906</v>
+        <v>-3.924852536640258</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.648619566032442</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.44031981302609</v>
+        <v>-36.41345440759486</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1102737529967666</v>
+        <v>0.07824998024590463</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.089854829354532</v>
+        <v>-4.101559348095035</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.2611915917965</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.57007090089535</v>
+        <v>-38.54744740158485</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2221267238518166</v>
+        <v>-0.2490575907972471</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.167544554417334</v>
+        <v>-4.187588870068017</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.875586694214565</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.90322400571367</v>
+        <v>-40.89199080987547</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4800712744395035</v>
+        <v>-0.51197721646479</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.373499570420527</v>
+        <v>-4.394133039699087</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.507984135196148</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.32295650922432</v>
+        <v>-43.31591285029548</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.3971184436343272</v>
+        <v>-0.4286447088772036</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.693959867077456</v>
+        <v>-4.71371615206562</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.170865344489407</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79936559173681</v>
+        <v>-45.79967980700501</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5538333086497882</v>
+        <v>-0.5737990704834205</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.93254090176223</v>
+        <v>-4.958005430789387</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.888627648672208</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.20197336313048</v>
+        <v>-48.20270653208962</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.571429363669068</v>
+        <v>-0.5998134762299302</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.282262495270417</v>
+        <v>-5.3152027292202</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.675604351308516</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.48635763986337</v>
+        <v>-50.49412137544851</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.6976522553661491</v>
+        <v>-0.7239285071694933</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.605079406438857</v>
+        <v>-5.634366887895798</v>
       </c>
     </row>
   </sheetData>
